--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H2">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I2">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J2">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N2">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O2">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P2">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q2">
-        <v>1047.464331101957</v>
+        <v>6.349844838965001</v>
       </c>
       <c r="R2">
-        <v>1047.464331101957</v>
+        <v>57.148603550685</v>
       </c>
       <c r="S2">
-        <v>0.1327840629163723</v>
+        <v>0.0006612824455889751</v>
       </c>
       <c r="T2">
-        <v>0.1327840629163723</v>
+        <v>0.0006983577982826422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H3">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I3">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J3">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N3">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P3">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q3">
-        <v>976.4556324191362</v>
+        <v>6.62354755968</v>
       </c>
       <c r="R3">
-        <v>976.4556324191362</v>
+        <v>59.61192803712</v>
       </c>
       <c r="S3">
-        <v>0.1237824929024416</v>
+        <v>0.0006897862608961019</v>
       </c>
       <c r="T3">
-        <v>0.1237824929024416</v>
+        <v>0.0007284597038047386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H4">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I4">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J4">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N4">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O4">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P4">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q4">
-        <v>2245.057351309184</v>
+        <v>15.388506696625</v>
       </c>
       <c r="R4">
-        <v>2245.057351309184</v>
+        <v>138.496560269625</v>
       </c>
       <c r="S4">
-        <v>0.2845995111580425</v>
+        <v>0.001602582362306222</v>
       </c>
       <c r="T4">
-        <v>0.2845995111580425</v>
+        <v>0.001692432481116247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H5">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I5">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J5">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N5">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O5">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P5">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q5">
-        <v>2272.901242260065</v>
+        <v>13.77732483956</v>
       </c>
       <c r="R5">
-        <v>2272.901242260065</v>
+        <v>123.99592355604</v>
       </c>
       <c r="S5">
-        <v>0.2881292017241822</v>
+        <v>0.001434791446819507</v>
       </c>
       <c r="T5">
-        <v>0.2881292017241822</v>
+        <v>0.001515234227793847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H6">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I6">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J6">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N6">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O6">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P6">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q6">
-        <v>212.5917494431158</v>
+        <v>1.36424005119</v>
       </c>
       <c r="R6">
-        <v>212.5917494431158</v>
+        <v>8.18544030714</v>
       </c>
       <c r="S6">
-        <v>0.02694964916262016</v>
+        <v>0.0001420740223265673</v>
       </c>
       <c r="T6">
-        <v>0.02694964916262016</v>
+        <v>0.0001000263473769477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H7">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J7">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N7">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O7">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P7">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q7">
-        <v>175.8589368660363</v>
+        <v>1214.055132416629</v>
       </c>
       <c r="R7">
-        <v>175.8589368660363</v>
+        <v>10926.49619174966</v>
       </c>
       <c r="S7">
-        <v>0.02229313537832839</v>
+        <v>0.1264335377327383</v>
       </c>
       <c r="T7">
-        <v>0.02229313537832839</v>
+        <v>0.1335221396380472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H8">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J8">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N8">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P8">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q8">
-        <v>163.9372762540092</v>
+        <v>1266.385575327829</v>
       </c>
       <c r="R8">
-        <v>163.9372762540092</v>
+        <v>11397.47017795046</v>
       </c>
       <c r="S8">
-        <v>0.020781860496911</v>
+        <v>0.1318833092066368</v>
       </c>
       <c r="T8">
-        <v>0.020781860496911</v>
+        <v>0.1392774571019269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H9">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I9">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J9">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N9">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O9">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P9">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q9">
-        <v>376.9230008903117</v>
+        <v>2942.197173169103</v>
       </c>
       <c r="R9">
-        <v>376.9230008903117</v>
+        <v>26479.77455852193</v>
       </c>
       <c r="S9">
-        <v>0.04778145277003743</v>
+        <v>0.3064048636494498</v>
       </c>
       <c r="T9">
-        <v>0.04778145277003743</v>
+        <v>0.3235837082757282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.45359715342374</v>
+        <v>43.85905233333333</v>
       </c>
       <c r="H10">
-        <v>6.45359715342374</v>
+        <v>131.577157</v>
       </c>
       <c r="I10">
-        <v>0.1437550821363413</v>
+        <v>0.8662096468293877</v>
       </c>
       <c r="J10">
-        <v>0.1437550821363413</v>
+        <v>0.9052121726823298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N10">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O10">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P10">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q10">
-        <v>381.5977157378182</v>
+        <v>2634.148133793654</v>
       </c>
       <c r="R10">
-        <v>381.5977157378182</v>
+        <v>23707.33320414289</v>
       </c>
       <c r="S10">
-        <v>0.04837405302571811</v>
+        <v>0.2743241707686557</v>
       </c>
       <c r="T10">
-        <v>0.04837405302571811</v>
+        <v>0.2897043845509635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H11">
+        <v>131.577157</v>
+      </c>
+      <c r="I11">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J11">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.947122</v>
+      </c>
+      <c r="N11">
+        <v>11.894244</v>
+      </c>
+      <c r="O11">
+        <v>0.03135934305434628</v>
+      </c>
+      <c r="P11">
+        <v>0.02112707240667584</v>
+      </c>
+      <c r="Q11">
+        <v>260.835135030718</v>
+      </c>
+      <c r="R11">
+        <v>1565.010810184308</v>
+      </c>
+      <c r="S11">
+        <v>0.02716376547190691</v>
+      </c>
+      <c r="T11">
+        <v>0.01912448311566394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.089704</v>
+      </c>
+      <c r="I12">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J12">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.68083366666667</v>
+      </c>
+      <c r="N12">
+        <v>83.042501</v>
+      </c>
+      <c r="O12">
+        <v>0.1459618213622149</v>
+      </c>
+      <c r="P12">
+        <v>0.1475036943464798</v>
+      </c>
+      <c r="Q12">
+        <v>181.1669595849507</v>
+      </c>
+      <c r="R12">
+        <v>1087.001757509704</v>
+      </c>
+      <c r="S12">
+        <v>0.0188670011838876</v>
+      </c>
+      <c r="T12">
+        <v>0.01328319691014988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="H11">
-        <v>6.45359715342374</v>
-      </c>
-      <c r="I11">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="J11">
-        <v>0.1437550821363413</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.53056822011943</v>
-      </c>
-      <c r="N11">
-        <v>5.53056822011943</v>
-      </c>
-      <c r="O11">
-        <v>0.03147422962796657</v>
-      </c>
-      <c r="P11">
-        <v>0.03147422962796657</v>
-      </c>
-      <c r="Q11">
-        <v>35.69205932217855</v>
-      </c>
-      <c r="R11">
-        <v>35.69205932217855</v>
-      </c>
-      <c r="S11">
-        <v>0.004524580465346401</v>
-      </c>
-      <c r="T11">
-        <v>0.004524580465346401</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.089704</v>
+      </c>
+      <c r="I13">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J13">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>28.873984</v>
+      </c>
+      <c r="N13">
+        <v>86.62195199999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1522533369252733</v>
+      </c>
+      <c r="P13">
+        <v>0.1538616705619625</v>
+      </c>
+      <c r="Q13">
+        <v>188.975951930368</v>
+      </c>
+      <c r="R13">
+        <v>1133.855711582208</v>
+      </c>
+      <c r="S13">
+        <v>0.01968024145774047</v>
+      </c>
+      <c r="T13">
+        <v>0.01385575375623082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H14">
+        <v>13.089704</v>
+      </c>
+      <c r="I14">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J14">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>67.08300833333334</v>
+      </c>
+      <c r="N14">
+        <v>201.249025</v>
+      </c>
+      <c r="O14">
+        <v>0.3537306064080358</v>
+      </c>
+      <c r="P14">
+        <v>0.3574672524750558</v>
+      </c>
+      <c r="Q14">
+        <v>439.0483612564334</v>
+      </c>
+      <c r="R14">
+        <v>2634.290167538601</v>
+      </c>
+      <c r="S14">
+        <v>0.04572316039627979</v>
+      </c>
+      <c r="T14">
+        <v>0.03219111171821133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H15">
+        <v>13.089704</v>
+      </c>
+      <c r="I15">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J15">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>60.05939466666666</v>
+      </c>
+      <c r="N15">
+        <v>180.178184</v>
+      </c>
+      <c r="O15">
+        <v>0.3166948922501296</v>
+      </c>
+      <c r="P15">
+        <v>0.3200403102098261</v>
+      </c>
+      <c r="Q15">
+        <v>393.0798493029227</v>
+      </c>
+      <c r="R15">
+        <v>2358.479095817536</v>
+      </c>
+      <c r="S15">
+        <v>0.04093593003465439</v>
+      </c>
+      <c r="T15">
+        <v>0.02882069143106873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H16">
+        <v>13.089704</v>
+      </c>
+      <c r="I16">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J16">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.947122</v>
+      </c>
+      <c r="N16">
+        <v>11.894244</v>
+      </c>
+      <c r="O16">
+        <v>0.03135934305434628</v>
+      </c>
+      <c r="P16">
+        <v>0.02112707240667584</v>
+      </c>
+      <c r="Q16">
+        <v>38.923033315944</v>
+      </c>
+      <c r="R16">
+        <v>155.692133263776</v>
+      </c>
+      <c r="S16">
+        <v>0.004053503560112814</v>
+      </c>
+      <c r="T16">
+        <v>0.001902562943634956</v>
       </c>
     </row>
   </sheetData>
